--- a/SchedulingData/dynamic12/pso/scheduling1_14.xlsx
+++ b/SchedulingData/dynamic12/pso/scheduling1_14.xlsx
@@ -462,7 +462,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -473,7 +473,7 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>54.56</v>
+        <v>64.56</v>
       </c>
       <c r="E2" t="n">
         <v>26.724</v>
@@ -500,154 +500,154 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>pond16</t>
+          <t>pond40</t>
         </is>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>45.76</v>
+        <v>63.6</v>
       </c>
       <c r="E4" t="n">
-        <v>27.624</v>
+        <v>25.84</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>pond25</t>
+          <t>pond56</t>
         </is>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>75.62</v>
+        <v>49.12</v>
       </c>
       <c r="E5" t="n">
-        <v>26.568</v>
+        <v>25.788</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>pond28</t>
+          <t>pond63</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>54.56</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>102.68</v>
+        <v>65.5</v>
       </c>
       <c r="E6" t="n">
-        <v>23.532</v>
+        <v>26.64</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>pond24</t>
+          <t>pond50</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>45.76</v>
+        <v>64.56</v>
       </c>
       <c r="D7" t="n">
-        <v>87.52</v>
+        <v>139.64</v>
       </c>
       <c r="E7" t="n">
-        <v>24.088</v>
+        <v>23.316</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>pond43</t>
+          <t>pond58</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>102.68</v>
+        <v>65.5</v>
       </c>
       <c r="D8" t="n">
-        <v>150.22</v>
+        <v>126.64</v>
       </c>
       <c r="E8" t="n">
-        <v>20.408</v>
+        <v>23.616</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>pond56</t>
+          <t>pond34</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>87.52</v>
+        <v>139.64</v>
       </c>
       <c r="D9" t="n">
-        <v>151.04</v>
+        <v>174.36</v>
       </c>
       <c r="E9" t="n">
-        <v>19.876</v>
+        <v>20.984</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>pond1</t>
+          <t>pond11</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>75.62</v>
+        <v>63.6</v>
       </c>
       <c r="D10" t="n">
-        <v>119.22</v>
+        <v>132.34</v>
       </c>
       <c r="E10" t="n">
-        <v>23.848</v>
+        <v>23.056</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>pond5</t>
+          <t>pond16</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>47.54</v>
+        <v>132.34</v>
       </c>
       <c r="D11" t="n">
-        <v>93.90000000000001</v>
+        <v>187</v>
       </c>
       <c r="E11" t="n">
-        <v>23.42</v>
+        <v>20.68</v>
       </c>
     </row>
     <row r="12">
@@ -656,245 +656,245 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>pond40</t>
+          <t>pond55</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>151.04</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>204.04</v>
+        <v>45.5</v>
       </c>
       <c r="E12" t="n">
-        <v>15.716</v>
+        <v>26.64</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>pond18</t>
+          <t>pond38</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>93.90000000000001</v>
+        <v>45.5</v>
       </c>
       <c r="D13" t="n">
-        <v>158.48</v>
+        <v>100.28</v>
       </c>
       <c r="E13" t="n">
-        <v>19.572</v>
+        <v>22.792</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>pond14</t>
+          <t>pond8</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>187</v>
       </c>
       <c r="D14" t="n">
-        <v>76.52</v>
+        <v>227.6</v>
       </c>
       <c r="E14" t="n">
-        <v>26.528</v>
+        <v>17.26</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>pond41</t>
+          <t>pond29</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>158.48</v>
+        <v>126.64</v>
       </c>
       <c r="D15" t="n">
-        <v>208.38</v>
+        <v>188.26</v>
       </c>
       <c r="E15" t="n">
-        <v>16.712</v>
+        <v>21.064</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>pond47</t>
+          <t>pond32</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>204.04</v>
+        <v>49.12</v>
       </c>
       <c r="D16" t="n">
-        <v>238.94</v>
+        <v>111.72</v>
       </c>
       <c r="E16" t="n">
-        <v>13.356</v>
+        <v>21.168</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>pond38</t>
+          <t>pond5</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>119.22</v>
+        <v>227.6</v>
       </c>
       <c r="D17" t="n">
-        <v>203.6</v>
+        <v>278.86</v>
       </c>
       <c r="E17" t="n">
-        <v>20</v>
+        <v>14.244</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>pond31</t>
+          <t>pond27</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>203.6</v>
+        <v>47.54</v>
       </c>
       <c r="D18" t="n">
-        <v>241.3</v>
+        <v>101.34</v>
       </c>
       <c r="E18" t="n">
-        <v>17.36</v>
+        <v>24.156</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>pond50</t>
+          <t>pond35</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>101.34</v>
       </c>
       <c r="D19" t="n">
-        <v>70.48</v>
+        <v>148.54</v>
       </c>
       <c r="E19" t="n">
-        <v>26.592</v>
+        <v>20.076</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>pond49</t>
+          <t>pond44</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>70.48</v>
+        <v>278.86</v>
       </c>
       <c r="D20" t="n">
-        <v>110.1</v>
+        <v>338.96</v>
       </c>
       <c r="E20" t="n">
-        <v>23.76</v>
+        <v>11.364</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>pond37</t>
+          <t>pond18</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>76.52</v>
+        <v>100.28</v>
       </c>
       <c r="D21" t="n">
-        <v>143.18</v>
+        <v>169.76</v>
       </c>
       <c r="E21" t="n">
-        <v>21.992</v>
+        <v>18.944</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>pond9</t>
+          <t>pond4</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>110.1</v>
+        <v>188.26</v>
       </c>
       <c r="D22" t="n">
-        <v>171.9</v>
+        <v>235.52</v>
       </c>
       <c r="E22" t="n">
-        <v>20.22</v>
+        <v>18.468</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>pond8</t>
+          <t>pond31</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>241.3</v>
+        <v>174.36</v>
       </c>
       <c r="D23" t="n">
-        <v>296.8</v>
+        <v>231.66</v>
       </c>
       <c r="E23" t="n">
-        <v>13.94</v>
+        <v>18.344</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>pond20</t>
+          <t>pond37</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>208.38</v>
+        <v>231.66</v>
       </c>
       <c r="D24" t="n">
-        <v>266.36</v>
+        <v>293.22</v>
       </c>
       <c r="E24" t="n">
-        <v>14.024</v>
+        <v>13.808</v>
       </c>
     </row>
     <row r="25">
@@ -903,207 +903,207 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>pond44</t>
+          <t>pond28</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>296.8</v>
+        <v>235.52</v>
       </c>
       <c r="D25" t="n">
-        <v>371.6</v>
+        <v>283.84</v>
       </c>
       <c r="E25" t="n">
-        <v>11.06</v>
+        <v>15.276</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>pond4</t>
+          <t>pond43</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>171.9</v>
+        <v>111.72</v>
       </c>
       <c r="D26" t="n">
-        <v>218.96</v>
+        <v>178.86</v>
       </c>
       <c r="E26" t="n">
-        <v>17.624</v>
+        <v>18.044</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>pond55</t>
+          <t>pond21</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>238.94</v>
+        <v>148.54</v>
       </c>
       <c r="D27" t="n">
-        <v>278.94</v>
+        <v>208.74</v>
       </c>
       <c r="E27" t="n">
-        <v>9.996</v>
+        <v>16.176</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>pond17</t>
+          <t>pond47</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>278.94</v>
+        <v>293.22</v>
       </c>
       <c r="D28" t="n">
-        <v>352.94</v>
+        <v>333.02</v>
       </c>
       <c r="E28" t="n">
-        <v>7.676</v>
+        <v>11.448</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>pond11</t>
+          <t>pond24</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>218.96</v>
+        <v>283.84</v>
       </c>
       <c r="D29" t="n">
-        <v>258.1</v>
+        <v>345.2</v>
       </c>
       <c r="E29" t="n">
-        <v>14.84</v>
+        <v>11.74</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>pond63</t>
+          <t>pond41</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>352.94</v>
+        <v>178.86</v>
       </c>
       <c r="D30" t="n">
-        <v>442.34</v>
+        <v>223.66</v>
       </c>
       <c r="E30" t="n">
-        <v>4.316</v>
+        <v>15.184</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>pond35</t>
+          <t>pond20</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>150.22</v>
+        <v>208.74</v>
       </c>
       <c r="D31" t="n">
-        <v>197.42</v>
+        <v>246.92</v>
       </c>
       <c r="E31" t="n">
-        <v>16.328</v>
+        <v>13.488</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>pond19</t>
+          <t>pond59</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>197.42</v>
+        <v>345.2</v>
       </c>
       <c r="D32" t="n">
-        <v>238.46</v>
+        <v>426.9</v>
       </c>
       <c r="E32" t="n">
-        <v>13.364</v>
+        <v>8.66</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>pond58</t>
+          <t>pond12</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>266.36</v>
+        <v>169.76</v>
       </c>
       <c r="D33" t="n">
-        <v>332.8</v>
+        <v>223.4</v>
       </c>
       <c r="E33" t="n">
-        <v>11</v>
+        <v>15.2</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>pond3</t>
+          <t>pond19</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>258.1</v>
+        <v>338.96</v>
       </c>
       <c r="D34" t="n">
-        <v>294.14</v>
+        <v>389.9</v>
       </c>
       <c r="E34" t="n">
-        <v>11.876</v>
+        <v>8.4</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>pond34</t>
+          <t>pond25</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>143.18</v>
+        <v>223.4</v>
       </c>
       <c r="D35" t="n">
-        <v>187.6</v>
+        <v>283.82</v>
       </c>
       <c r="E35" t="n">
-        <v>19.66</v>
+        <v>11.768</v>
       </c>
     </row>
     <row r="36">
@@ -1112,112 +1112,112 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>pond29</t>
+          <t>pond49</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>332.8</v>
+        <v>246.92</v>
       </c>
       <c r="D36" t="n">
-        <v>394.42</v>
+        <v>311.34</v>
       </c>
       <c r="E36" t="n">
-        <v>8.448</v>
+        <v>10.656</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>pond32</t>
+          <t>pond17</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>187.6</v>
+        <v>283.82</v>
       </c>
       <c r="D37" t="n">
-        <v>269.6</v>
+        <v>313.42</v>
       </c>
       <c r="E37" t="n">
-        <v>15.04</v>
+        <v>9.448</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>pond12</t>
+          <t>pond14</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>238.46</v>
+        <v>333.02</v>
       </c>
       <c r="D38" t="n">
-        <v>287.2</v>
+        <v>394.04</v>
       </c>
       <c r="E38" t="n">
-        <v>9.619999999999999</v>
+        <v>7.976</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>pond27</t>
+          <t>pond1</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>394.42</v>
+        <v>313.42</v>
       </c>
       <c r="D39" t="n">
-        <v>433.42</v>
+        <v>352.02</v>
       </c>
       <c r="E39" t="n">
-        <v>6.168</v>
+        <v>6.728</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>pond21</t>
+          <t>pond9</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>287.2</v>
+        <v>223.66</v>
       </c>
       <c r="D40" t="n">
-        <v>337.5</v>
+        <v>280.46</v>
       </c>
       <c r="E40" t="n">
-        <v>5.72</v>
+        <v>11.644</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>pond59</t>
+          <t>pond3</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>371.6</v>
+        <v>311.34</v>
       </c>
       <c r="D41" t="n">
-        <v>418.7</v>
+        <v>382.18</v>
       </c>
       <c r="E41" t="n">
-        <v>7.98</v>
+        <v>7.692</v>
       </c>
     </row>
   </sheetData>
